--- a/xlsx/美国国防语言学院_intext.xlsx
+++ b/xlsx/美国国防语言学院_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%87%E6%8F%AE%E5%AE%98</t>
   </si>
   <si>
-    <t>指揮官</t>
+    <t>指挥官</t>
   </si>
   <si>
     <t>政策_政策_加州_美国国防语言学院</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%81%AF%E5%90%88%E5%85%B5%E7%A8%AE%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>美國陸軍聯合兵種中心</t>
+    <t>美国陆军联合兵种中心</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Combined_Arms_Support_Command</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%AF%A7%E5%A0%A1</t>
   </si>
   <si>
-    <t>班寧堡</t>
+    <t>班宁堡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fort_Eustis</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E9%A8%8E%E5%85%B5%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>遊騎兵學校</t>
+    <t>游骑兵学校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Sergeants_Major_Academy</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>空軍技術學院 (美國)</t>
+    <t>空军技术学院 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_College_of_the_Air_Force</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>海軍陸戰隊大學</t>
+    <t>海军陆战队大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Marine_Corps_War_College</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國空軍大學</t>
+    <t>美国空军大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Air_War_College</t>
